--- a/13/1/3/Operaciones no financieras 1990 a 2021 - Anual.xlsx
+++ b/13/1/3/Operaciones no financieras 1990 a 2021 - Anual.xlsx
@@ -2898,10 +2898,10 @@
         <v>55</v>
       </c>
       <c r="B32">
-        <v>8241579</v>
+        <v>8244899</v>
       </c>
       <c r="C32">
-        <v>3394140</v>
+        <v>3394688</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2910,64 +2910,64 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>3149019</v>
+        <v>3151151</v>
       </c>
       <c r="G32">
-        <v>28817</v>
+        <v>28815</v>
       </c>
       <c r="H32">
-        <v>1268907</v>
+        <v>1269450</v>
       </c>
       <c r="I32">
-        <v>400697</v>
+        <v>400795</v>
       </c>
       <c r="J32">
-        <v>7419343</v>
+        <v>7417789</v>
       </c>
       <c r="K32">
-        <v>4466204</v>
+        <v>4465835</v>
       </c>
       <c r="L32">
-        <v>1810928</v>
+        <v>1809324</v>
       </c>
       <c r="M32">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="N32">
-        <v>1015909</v>
+        <v>1016195</v>
       </c>
       <c r="O32">
-        <v>68528</v>
+        <v>68720</v>
       </c>
       <c r="P32">
-        <v>56379</v>
+        <v>56328</v>
       </c>
       <c r="Q32">
-        <v>822236</v>
+        <v>827111</v>
       </c>
       <c r="R32">
-        <v>459310</v>
+        <v>459603</v>
       </c>
       <c r="S32">
         <v>13172</v>
       </c>
       <c r="T32">
-        <v>454573</v>
+        <v>454878</v>
       </c>
       <c r="U32">
-        <v>17909</v>
+        <v>17897</v>
       </c>
       <c r="V32">
         <v>484646</v>
       </c>
       <c r="W32">
-        <v>8254751</v>
+        <v>8258071</v>
       </c>
       <c r="X32">
-        <v>7891825</v>
+        <v>7890564</v>
       </c>
       <c r="Y32">
-        <v>362926</v>
+        <v>367507</v>
       </c>
     </row>
   </sheetData>
